--- a/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Campus Arapiraca (Arapiraca, Palmeira dos Índios e Penedo)-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7810460177918237</v>
+        <v>0.7380150803541954</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.789393189412716</v>
+        <v>0.7744668735928316</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8877137049659085</v>
+        <v>0.8818943118743715</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23800740479420668</v>
+        <v>0.2089540773930559</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.7481845302697843</v>
+        <v>3.433938445896594</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.015623193649632442</v>
+        <v>0.017694313272492608</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.209814814814815</v>
+        <v>1.6483760683760684</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6967768551854148</v>
+        <v>0.569473627800303</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1880333970960797</v>
+        <v>0.12863333532228233</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.751322967310276</v>
+        <v>0.7368355828193704</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7579571640027805</v>
+        <v>0.7668961042037586</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8565208070815242</v>
+        <v>0.8746849216468074</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22159714639044265</v>
+        <v>0.21516985588695176</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1315000953446406</v>
+        <v>3.289932592435568</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.01780572363130654</v>
+        <v>0.018128675992418224</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.03633461285494086</v>
+        <v>0.048949496184019795</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.17892950025455093</v>
+        <v>0.13166452061576123</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7592956798634779</v>
+        <v>0.706644667720691</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7670718798774646</v>
+        <v>0.7458655861383264</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8641773638483791</v>
+        <v>0.8614584330439099</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.23040164933954546</v>
+        <v>0.19651424078033164</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2931699250134967</v>
+        <v>2.9349255569310837</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.017250717100567893</v>
+        <v>0.01974731335483377</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.03617890505385944</v>
+        <v>0.050623083089819464</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.18944280690936555</v>
+        <v>0.11851394609017898</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7532796297689318</v>
+        <v>0.7197797682119811</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7583496791933557</v>
+        <v>0.75632658141207</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8631606051938304</v>
+        <v>0.865798052364375</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2219666228917551</v>
+        <v>0.20550076586464258</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.138210934965597</v>
+        <v>3.1038534518657337</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.017671461549533585</v>
+        <v>0.0188398764477247</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.03771905660691122</v>
+        <v>0.04935742467423834</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.17892950025455093</v>
+        <v>0.12863333532228233</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7559624633462723</v>
+        <v>0.7274292269653634</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7638971107691553</v>
+        <v>0.7505832266873146</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8680869844358454</v>
+        <v>0.860408247394682</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22728073314611993</v>
+        <v>0.20049853967399336</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.235441604538226</v>
+        <v>3.009353447718346</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.01749717070577917</v>
+        <v>0.018640387294915985</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.03937709215293238</v>
+        <v>0.04007997889083523</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.179720224448864</v>
+        <v>0.13167385961062195</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7661958303046322</v>
+        <v>0.7073638667160755</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7771298789159689</v>
+        <v>0.7478490713790653</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.849390177976005</v>
+        <v>0.8587308606474793</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2406942693572164</v>
+        <v>0.19817604892991136</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.486918188656428</v>
+        <v>2.9658787118857988</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01662114087071253</v>
+        <v>0.01959700788700416</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.03549629875083114</v>
+        <v>0.040249326734366604</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.19192073308098406</v>
+        <v>0.13166452061576123</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7682443862684419</v>
+        <v>0.7094115522610523</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7782402968708088</v>
+        <v>0.7485797964252413</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8500258845210481</v>
+        <v>0.8590964827715022</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.24187003198418972</v>
+        <v>0.19879312072470512</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.509385546108108</v>
+        <v>2.97740510023354</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.016468914670532925</v>
+        <v>0.019440252938065124</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.03531705138219695</v>
+        <v>0.040113411485186524</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.20026366905947815</v>
+        <v>0.13166452061576123</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7778067733663511</v>
+        <v>0.7377673722268413</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7890879235394664</v>
+        <v>0.7730887382369931</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8816788589076426</v>
+        <v>0.8859048651949661</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2537977721941692</v>
+        <v>0.2211337121562238</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7413121940749674</v>
+        <v>3.407009119910633</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.01592869094976902</v>
+        <v>0.01806898217677792</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04086460211219691</v>
+        <v>0.055369610414670575</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20026366905947815</v>
+        <v>0.13236452707405028</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.786252574060506</v>
+        <v>0.7303855030047128</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.791341811535616</v>
+        <v>0.7700550684794601</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8829073358385212</v>
+        <v>0.8730613184648935</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25638127906881314</v>
+        <v>0.2181833523397977</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.7925269904789287</v>
+        <v>3.3488673283093218</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.015256729622957021</v>
+        <v>0.018074329566053027</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04028231700452112</v>
+        <v>0.05269738337484222</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2023949177322667</v>
+        <v>0.13263621514899615</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7720016298744045</v>
+        <v>0.7412329792742276</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7809759628246046</v>
+        <v>0.7736280663489677</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8900999068497405</v>
+        <v>0.8787690226035814</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2448016048380811</v>
+        <v>0.22166413611103106</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.5657089189676263</v>
+        <v>3.417508760346449</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.01642451161206283</v>
+        <v>0.01721868336937773</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.0449955360594602</v>
+        <v>0.052930155823639476</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1866239872827938</v>
+        <v>0.13455820907117935</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7686502091145683</v>
+        <v>0.720702395941102</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7779418277665611</v>
+        <v>0.764351871710372</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8873797620224093</v>
+        <v>0.8831769604625802</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2415532021347626</v>
+        <v>0.2127851711940491</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.5033244664769563</v>
+        <v>3.243615288855299</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.0166533726828397</v>
+        <v>0.01898139504621663</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04451016320351458</v>
+        <v>0.05685100764416596</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.18243572684684561</v>
+        <v>0.1255379892754303</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7642498940172631</v>
+        <v>0.7197969753102833</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7741687471330209</v>
+        <v>0.7637793586626426</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8622844558833672</v>
+        <v>0.8812725139079471</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23759806351328608</v>
+        <v>0.21225367279926668</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.4280850737210744</v>
+        <v>3.2333303065241243</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.01686262267431177</v>
+        <v>0.018985178235584207</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.03863758883095846</v>
+        <v>0.056472437568838955</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.18243572684684561</v>
+        <v>0.1259306941359582</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7643746227531888</v>
+        <v>0.7117753184073679</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7746971929716411</v>
+        <v>0.7587558626559059</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.863197019305297</v>
+        <v>0.8571840365378924</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23814648267209862</v>
+        <v>0.20766862950196255</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.438471110012091</v>
+        <v>3.14517845287021</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.016857416082776633</v>
+        <v>0.01942874058349742</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.038702386931815984</v>
+        <v>0.05139580664719442</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1866239872827938</v>
+        <v>0.12389773809552077</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7122936313926759</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7591926263483085</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8577423645457133</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20806176014686</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.152696758556987</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.019384161637076534</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.05152865227999858</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1259306941359582</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>450.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6636109813819863</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6860735474464993</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6837767100305618</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5753803125013964</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.2577777777777777</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1483480706060067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5945517165469636</v>
+        <v>0.36141978567772226</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6125819411423264</v>
+        <v>0.458672766462435</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5980500591814941</v>
+        <v>0.4169848347921065</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4813309771279187</v>
+        <v>0.33511568344582987</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.7644444444444445</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2794687712290436</v>
+        <v>0.220469454800152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6551363113456494</v>
+        <v>0.6041841377241648</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6829895094570677</v>
+        <v>0.641014531498384</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6682667075436323</v>
+        <v>0.6277515762098858</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5736517175922741</v>
+        <v>0.49096118762486496</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.3666666666666667</v>
+        <v>3.2577777777777777</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0536816354402987</v>
+        <v>1.1483480706060067</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.6208812009552037</v>
+        <v>0.522801415274007</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6386323775521321</v>
+        <v>0.5531793764499927</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6108223408942536</v>
+        <v>0.5329985927932578</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5180890725364223</v>
+        <v>0.3797876670513348</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.7444444444444445</v>
+        <v>3.7644444444444445</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2212038230902793</v>
+        <v>1.2794687712290436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5391315491799563</v>
+        <v>0.568700463003853</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.5266689506475933</v>
+        <v>0.6020716133180419</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5472247827947055</v>
+        <v>0.6300499410501186</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.41515112464129317</v>
+        <v>0.5368398632731426</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.47333333333333333</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.2943082526997507</v>
+        <v>0.3354498506873373</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.529498618363903</v>
+        <v>0.6030831499479421</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5168548038878965</v>
+        <v>0.6247718598194449</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5367274301943361</v>
+        <v>0.6557735017853605</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.39727322271877474</v>
+        <v>0.4730138289019087</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.49777777777777776</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3567432657055523</v>
+        <v>1.2943082526997507</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.41844205906246623</v>
+        <v>0.5951275018844918</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.4172933871131325</v>
+        <v>0.6187405411213727</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3450750278842251</v>
+        <v>0.6497945989716316</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.2921707628358197</v>
+        <v>0.45609164008478087</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.1644444444444444</v>
+        <v>0.49777777777777776</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.1787191635912153</v>
+        <v>1.3567432657055523</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.411502382504624</v>
+        <v>0.3105565382452577</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3957287319346364</v>
+        <v>0.4003814652995011</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3205837428122359</v>
+        <v>0.30572014566791494</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.24872638078398174</v>
+        <v>0.28217197435510827</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.033333333333333</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.483765149895543</v>
+        <v>0.22931636131325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5140787613759032</v>
+        <v>0.4319107415238275</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.49238482536944517</v>
+        <v>0.42921856412168713</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3967265353268791</v>
+        <v>0.37134115685503716</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.3692085955742069</v>
+        <v>0.2894088632871767</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.271111111111111</v>
+        <v>2.1644444444444444</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.4491564587613752</v>
+        <v>1.1787191635912153</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5304328515226199</v>
+        <v>0.4267113660798863</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.519499397761521</v>
+        <v>0.39519705087070045</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4330509501781842</v>
+        <v>0.3247622391472263</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.3949077826085129</v>
+        <v>0.24272855148838288</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.2288888888888887</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3883258447943443</v>
+        <v>1.483765149895543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5562756646303526</v>
+        <v>0.5413460460043349</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5525131285908802</v>
+        <v>0.48198090256370874</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5368257855514427</v>
+        <v>0.3907000858712439</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.433645784615192</v>
+        <v>0.38017211496719566</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>1.9644444444444444</v>
+        <v>1.271111111111111</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3073640246304001</v>
+        <v>1.4491564587613752</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>450.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5479574583002825</v>
+        <v>0.5373610923019372</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5479354476993971</v>
+        <v>0.4871758186715142</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5310778731687853</v>
+        <v>0.4037866439916986</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.4345497990342584</v>
+        <v>0.3831522624421977</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.2288888888888887</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3883258447943443</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>450.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5768602654467435</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.531990470068348</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5181261629641558</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.4400257086284278</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>1.9644444444444444</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3073640246304001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>450.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5665469424709293</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5281479735722183</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5134714648959374</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.43978149519422693</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>1.751111111111111</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.2069993019969127</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.051111111111111114</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.06</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.008888888888888889</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.4066666666666667</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4066666666666667</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.051111111111111114</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0044444444444444444</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2911111111111111</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.3622222222222222</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.02</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.07333333333333333</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.015555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3844444444444444</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.42444444444444446</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08222222222222222</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.02</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.024444444444444446</v>
+        <v>0.06</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.057777777777777775</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3844444444444444</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.11555555555555555</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.3977777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8711111111111111</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.011111111111111112</v>
+        <v>0.0044444444444444444</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.0022222222222222222</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03333333333333333</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.05333333333333334</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.028888888888888888</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.8711111111111111</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0044444444444444444</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.0044444444444444444</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.051111111111111114</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.013333333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.05555555555555555</v>
+        <v>0.8711111111111111</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.3244444444444444</v>
+        <v>0.011111111111111112</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.14222222222222222</v>
+        <v>0.0022222222222222222</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.36666666666666664</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.1</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.011111111111111112</v>
+        <v>0.028888888888888888</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
+        <v>0.8711111111111111</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.0044444444444444444</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.0044444444444444444</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.051111111111111114</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.013333333333333334</v>
+      </c>
+      <c r="G50" t="n" s="114">
         <v>0.05555555555555555</v>
-      </c>
-      <c r="C50" t="n" s="110">
-        <v>0.4622222222222222</v>
-      </c>
-      <c r="D50" t="n" s="111">
-        <v>0.2</v>
-      </c>
-      <c r="E50" t="n" s="112">
-        <v>0.08666666666666667</v>
-      </c>
-      <c r="F50" t="n" s="113">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="G50" t="n" s="114">
-        <v>0.1288888888888889</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4888888888888889</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.14</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05333333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.24666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.07111111111111111</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.19777777777777777</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13333333333333333</v>
+        <v>0.3244444444444444</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.057777777777777775</v>
+        <v>0.14222222222222222</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.46444444444444444</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.14666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.011111111111111112</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.2222222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.07777777777777778</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.23333333333333334</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.12666666666666668</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.24888888888888888</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.06888888888888889</v>
+        <v>0.14</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.4311111111111111</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.18444444444444444</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.06666666666666667</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.19777777777777777</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.057777777777777775</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.46444444444444444</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.07777777777777778</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.34</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.12666666666666668</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.24888888888888888</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.06888888888888889</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.4311111111111111</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.18444444444444444</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8643473357767126</v>
+        <v>0.8744263833781305</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8668380271328566</v>
+        <v>0.9848904218232241</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8763138971739888</v>
+        <v>0.9776898974230354</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6193974627476976</v>
+        <v>0.9560008817048514</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.50965143027512</v>
+        <v>65.1831844873761</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.010627790962609043</v>
+        <v>0.0017658204479222203</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.533333333333333</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9937163379739449</v>
+        <v>0.9832172493231053</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6328548386510824</v>
+        <v>0.9548825415788876</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8129501905053259</v>
+        <v>0.9797290067866788</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8169678639487629</v>
+        <v>0.9802834364613318</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7549837637610921</v>
+        <v>0.9613293257290104</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5980449680390136</v>
+        <v>0.9613293257290105</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.463521442595547</v>
+        <v>49.71877754147124</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.015158993624520185</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.0044538993540661894</v>
-      </c>
+        <v>0.0018837842696278109</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.6042415886088507</v>
+        <v>0.9613293257290104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8192901061277246</v>
+        <v>0.615898266804144</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8246031247450735</v>
+        <v>0.9769206295204453</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7796287820197936</v>
+        <v>0.9548825415788875</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6104582023967976</v>
+        <v>0.9548825415788875</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.701355845402448</v>
+        <v>42.328738142397455</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015135990406447936</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.012831664840396943</v>
-      </c>
+        <v>0.005596397486254875</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6614680886933142</v>
+        <v>0.9548825415788876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8258052898142938</v>
+        <v>0.6322951710402511</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.825788194789259</v>
+        <v>0.9753000051329686</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7866999065737127</v>
+        <v>0.9517907778066561</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6124100678800329</v>
+        <v>0.9517907778066563</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.740139130010834</v>
+        <v>39.485838372977184</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.014356047148578239</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.01850500643615746</v>
-      </c>
+        <v>0.005825101209365905</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6042415886088507</v>
+        <v>0.9517907778066563</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8490659623638165</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8515905899873434</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.8163687637172947</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.656676612674946</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.738117211804276</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.012335377539699786</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.013331151207057995</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6892612573378961</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>450.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9705860934410032</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9834216839626666</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9695640312982834</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9627205471150647</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.1288888888888889</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3354498506873373</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>450.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8614570188771687</v>
+        <v>0.9892230219440216</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8642544482927418</v>
+        <v>0.9856028397474516</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.8318769369199317</v>
+        <v>0.9752735656485557</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7481271017546478</v>
+        <v>0.9663933418736032</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.2577777777777777</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1483480706060067</v>
+        <v>1.2943082526997507</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>450.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8649638669443188</v>
+        <v>0.9903931721996184</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.853240818233738</v>
+        <v>0.9866488835236902</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.8058817205909383</v>
+        <v>0.9776791465622878</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7344427059394366</v>
+        <v>0.9676582319399615</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.7644444444444445</v>
+        <v>0.49777777777777776</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2794687712290436</v>
+        <v>1.3567432657055523</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>450.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.837533881056805</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8515090274902711</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7964318651207007</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7233820610260205</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.3666666666666667</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0536816354402987</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>450.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8159362933464658</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.812233578859449</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7310416714510906</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.6605839811406923</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.7444444444444445</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2212038230902793</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8711111111111111</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.1288888888888889</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8711111111111111</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.011111111111111112</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0022222222222222222</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.05333333333333334</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.028888888888888888</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.8711111111111111</v>
+      </c>
+      <c r="C27" t="n" s="225">
+        <v>0.0044444444444444444</v>
+      </c>
+      <c r="D27" t="n" s="226">
+        <v>0.0044444444444444444</v>
+      </c>
+      <c r="E27" t="n" s="227">
         <v>0.051111111111111114</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.06</v>
-      </c>
-      <c r="D27" t="n" s="226">
-        <v>0.008888888888888889</v>
-      </c>
-      <c r="E27" t="n" s="227">
-        <v>0.4066666666666667</v>
-      </c>
       <c r="F27" t="n" s="228">
-        <v>0.4066666666666667</v>
+        <v>0.013333333333333334</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.06666666666666667</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.051111111111111114</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0044444444444444444</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.044444444444444446</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2911111111111111</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.24666666666666667</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.3622222222222222</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.02</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.07333333333333333</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.015555555555555555</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3844444444444444</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.42444444444444446</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08222222222222222</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.02</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.024444444444444446</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.057777777777777775</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3844444444444444</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.11555555555555555</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.3977777777777778</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7410537128599053</v>
+        <v>0.6220024743500856</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7533420222195357</v>
+        <v>0.7195313062643046</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.604289256272821</v>
+        <v>0.6544805926262949</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.604289256272821</v>
+        <v>0.4609610302370264</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.054196864007542</v>
+        <v>2.565460325288097</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02343870755030598</v>
+        <v>0.017796851265272775</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.098888888888889</v>
+        <v>1.714074074074074</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.1942227713939773</v>
+        <v>0.8316460688360091</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.604289256272821</v>
+        <v>0.44585611193246955</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6042892562728212</v>
+        <v>0.7410537128599053</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6042892562728212</v>
+        <v>0.7533420222195357</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.3651655052467594</v>
+        <v>0.604289256272821</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6042892562728212</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6042892562728212</v>
-      </c>
+        <v>0.604289256272821</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.054196864007542</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02343870755030598</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6042892562728212</v>
+        <v>0.604289256272821</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.3651655052467594</v>
+        <v>0.1825618515562648</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6042892562728212</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3651655052467594</v>
-      </c>
+        <v>0.49932963836302524</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.3327377225057885</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.3327377225057886</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>0.9973221437163444</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.022052093131052112</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6042892562728212</v>
+        <v>0.33273772250578854</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.2864293087172731</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.6167364902397616</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.44585611193246943</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.44585611193246955</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.6091709086147514</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.022898592407341652</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.44585611193246955</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>450.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8689092823454724</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8956252721626442</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6962236571388466</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6042892562728212</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.1644444444444444</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.1787191635912153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>450.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.919448418343765</v>
+        <v>0.500437300653445</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8956252721626443</v>
+        <v>0.7407101045866121</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6962236571388466</v>
+        <v>0.5063884637026795</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6042892562728213</v>
+        <v>0.42673938416826734</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.22931636131325</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>450.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.8728010169079692</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8537999855266082</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7632622793699927</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6342067842008315</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.1644444444444444</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.1787191635912153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>450.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9107859563358587</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8066908971892086</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6729202510899154</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6078685625896281</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.033333333333333</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.483765149895543</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.05555555555555555</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.3244444444444444</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.14222222222222222</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.36666666666666664</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.1</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.011111111111111112</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.05555555555555555</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.4622222222222222</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.2</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.08666666666666667</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.06666666666666667</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.1288888888888889</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8995506684924344</v>
+        <v>0.7406322008271334</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9011281755312883</v>
+        <v>0.8741467298725711</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8200484856065633</v>
+        <v>0.826065130494075</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8200484856065633</v>
+        <v>0.6983639549367439</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.114104856196448</v>
+        <v>6.94576095629045</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.00937934692621983</v>
+        <v>0.00970843675620296</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.8577777777777778</v>
+        <v>2.657037037037037</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1993853082079846</v>
+        <v>0.8120328126990234</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8200484856065633</v>
+        <v>0.6836034861919064</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8200484856065633</v>
+        <v>0.8558137752658301</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8200484856065633</v>
+        <v>0.8586711641981011</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6724795187456178</v>
+        <v>0.7523433538720656</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8200484856065633</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8200484856065633</v>
-      </c>
+        <v>0.7523433538720659</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.0756968620452145</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.013413848865494522</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8200484856065633</v>
+        <v>0.7523433538720659</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6724795187456178</v>
+        <v>0.3723886463612489</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8200484856065633</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6724795187456178</v>
-      </c>
+        <v>0.8120718349640974</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6836034861919064</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6836034861919065</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.321182164519915</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.014847969078571121</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8200484856065633</v>
+        <v>0.6836034861919064</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.3924108454732458</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7945598665759377</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6591450247462594</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6591450247462594</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.867598084819363</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.016450752425593452</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6591450247462592</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>450.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9576413678909256</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9539519080138588</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.863865731567175</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8200484856065632</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>1.9644444444444444</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3073640246304001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>450.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9501121845225892</v>
+        <v>0.7602511687292984</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9539519080138588</v>
+        <v>0.8736866033507098</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.863865731567175</v>
+        <v>0.7625401003118852</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8200484856065634</v>
+        <v>0.7178068761992236</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.751111111111111</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2069993019969127</v>
+        <v>0.220469454800152</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>450.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9261814736556931</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8993219206832584</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8275714044357548</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7698141464590195</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.2577777777777777</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1483480706060067</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>450.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9417248753599349</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9084432710987472</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.847009760369322</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7779685141104347</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.7644444444444445</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2794687712290436</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.07777777777777778</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.34</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.12666666666666668</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.051111111111111114</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9488888888888889</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.24888888888888888</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.06888888888888889</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.4311111111111111</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.18444444444444444</v>
-      </c>
-      <c r="F24" t="n" s="458">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.051111111111111114</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.06</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.008888888888888889</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.4066666666666667</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.4066666666666667</v>
+      </c>
+      <c r="G26" t="n" s="459">
         <v>0.06666666666666667</v>
       </c>
-      <c r="G24" t="n" s="459">
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.051111111111111114</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0044444444444444444</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.044444444444444446</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2911111111111111</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.3622222222222222</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9797290067866788</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9802834364613318</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9613293257290104</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>49.71877754147124</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0018837842696278109</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.4855555555555556</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.3126556423665625</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9613293257290104</v>
+      <c r="A6" t="n" s="491">
+        <v>0.5616632420847971</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.5620346081015306</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.39085405759279523</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.2832854341875113</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.04128198056540542</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.75</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.1832394851792705</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.3908540575927953</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9241540725065939</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9613293257290105</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.15276689433675228</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.39085405759279535</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9241540725065939</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9613293257290105</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9241540725065939</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9613293257290105</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.15276689433675228</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.15276689433675228</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.39085405759279535</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>450.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9898198954993647</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9902851422012274</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9709488653465754</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9613293257290103</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.47333333333333333</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.2943082526997507</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8416678421437304</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8339226755499562</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5213544628798854</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.39085405759279535</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.271111111111111</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.4491564587613752</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>450.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9907395594131614</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9902851422012274</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9709488653465754</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9613293257290104</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.49777777777777776</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.3567432657055523</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8260096756709719</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8339226755499564</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5213544628798854</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.39085405759279523</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.2288888888888887</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3883258447943443</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8711111111111111</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.011111111111111112</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.0022222222222222222</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="F23" t="n" s="572">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4888888888888889</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.14</v>
+      </c>
+      <c r="D23" t="n" s="571">
         <v>0.05333333333333334</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.028888888888888888</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="E23" t="n" s="572">
+        <v>0.24666666666666667</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.07111111111111111</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8711111111111111</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0044444444444444444</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0044444444444444444</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.051111111111111114</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.013333333333333334</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.19777777777777777</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.057777777777777775</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.46444444444444444</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.14666666666666667</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.5616632420847971</v>
+        <v>0.8995506684924344</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.5620346081015306</v>
+        <v>0.9011281755312883</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.39085405759279523</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.2832854341875113</v>
+        <v>9.114104856196448</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04128198056540542</v>
+        <v>0.00937934692621983</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.75</v>
+        <v>1.8577777777777778</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.1832394851792705</v>
+        <v>1.1993853082079846</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.3908540575927953</v>
+        <v>0.8200484856065633</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.15276689433675228</v>
+        <v>0.6724795187456178</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.15276689433675228</v>
+        <v>0.6724795187456178</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.15276689433675228</v>
+        <v>0.6724795187456178</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065633</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>450.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8416678421437304</v>
+        <v>0.9576413678909256</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8339226755499562</v>
+        <v>0.9539519080138588</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5213544628798854</v>
+        <v>0.863865731567175</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.39085405759279535</v>
+        <v>0.8200484856065632</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.271111111111111</v>
+        <v>1.9644444444444444</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.4491564587613752</v>
+        <v>1.3073640246304001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>450.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8260096756709719</v>
+        <v>0.9501121845225892</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8339226755499564</v>
+        <v>0.9539519080138588</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5213544628798854</v>
+        <v>0.863865731567175</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.39085405759279523</v>
+        <v>0.8200484856065634</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.2288888888888887</v>
+        <v>1.751111111111111</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3883258447943443</v>
+        <v>1.2069993019969127</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4888888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.14</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05333333333333334</v>
+        <v>0.34</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.24666666666666667</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.07111111111111111</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.19777777777777777</v>
+        <v>0.24888888888888888</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.13333333333333333</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.057777777777777775</v>
+        <v>0.4311111111111111</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.46444444444444444</v>
+        <v>0.18444444444444444</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.14666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7948944916433385</v>
+        <v>0.7543756275708353</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8017067696815714</v>
+        <v>0.7920244775914702</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8975832840166241</v>
+        <v>0.8991261587232809</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2879032968737602</v>
+        <v>0.2757956946102184</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.04303650908381</v>
+        <v>3.808258147012528</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.014944705981140196</v>
+        <v>0.016932708838750147</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.232</v>
+        <v>1.6286666666666667</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7560287759221018</v>
+        <v>0.6562364857024012</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.21866894260438063</v>
+        <v>0.18944280690936555</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7636928479737175</v>
+        <v>0.7444625108142879</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7686220071844756</v>
+        <v>0.7663308815042937</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8634781362581077</v>
+        <v>0.876562217257076</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2695950727456763</v>
+        <v>0.2670744573432894</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.321932210715003</v>
+        <v>3.2795556658822043</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.017283256370828514</v>
+        <v>0.018051175997882536</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.041073281293625</v>
+        <v>0.0506145521579649</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.21866787640971241</v>
+        <v>0.19717570126752124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7714355430333315</v>
+        <v>0.7239979955992035</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7773237323039521</v>
+        <v>0.7636533155273078</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8719057726153572</v>
+        <v>0.8747036336341455</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.27947109298509804</v>
+        <v>0.26416919967098057</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.490824326932746</v>
+        <v>3.2310726813497603</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.016727455314052356</v>
+        <v>0.018591345350179672</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04072588693888186</v>
+        <v>0.05107365258100459</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.21877865231688642</v>
+        <v>0.1906817699951748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.767411006622133</v>
+        <v>0.7270848106211364</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7710714794903605</v>
+        <v>0.7646335143745918</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8721501391869438</v>
+        <v>0.8748520820814962</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2723259905630293</v>
+        <v>0.2652277420608312</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.36817569857091</v>
+        <v>3.2486932552985732</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01703721848519656</v>
+        <v>0.018333345883414853</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.04265023312108248</v>
+        <v>0.05068382216218055</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2147532488719453</v>
+        <v>0.19593673818171198</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7726151191972193</v>
+        <v>0.7551407464497178</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7786486371846268</v>
+        <v>0.7837017531399473</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8790878957397376</v>
+        <v>0.8936680789435679</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2810183244463279</v>
+        <v>0.2870296582058401</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.5177042837278107</v>
+        <v>3.623245978720346</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.01668361078046935</v>
+        <v>0.017519880223170196</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04417909391195205</v>
+        <v>0.06669491393455708</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.21866787640971241</v>
+        <v>0.2066351784914524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7766791578947368</v>
+        <v>0.7229056508135496</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7851932962882014</v>
+        <v>0.7631816562126799</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8687830195744282</v>
+        <v>0.8792763465960295</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2888382158560025</v>
+        <v>0.2636618863156937</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.655348193144279</v>
+        <v>3.222645864367972</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.01632048859049245</v>
+        <v>0.018964223677330402</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.04419267903517327</v>
+        <v>0.06997306842597943</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.21923447916239677</v>
+        <v>0.15014965071774256</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7780892427053523</v>
+        <v>0.736640619251026</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7872583657025595</v>
+        <v>0.7729171454119704</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8700125505086282</v>
+        <v>0.88232920176957</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.29136856614531315</v>
+        <v>0.27440882711981135</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.7005373597998688</v>
+        <v>3.403679008766141</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.016236308034336427</v>
+        <v>0.017977878522355415</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.0433523081060541</v>
+        <v>0.06725959365538522</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.21866787640971241</v>
+        <v>0.1906817699951748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7832373198704282</v>
+        <v>0.7381330660629231</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7927527118508819</v>
+        <v>0.784661504301484</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8538829109220749</v>
+        <v>0.9054788058721184</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.29825401896699666</v>
+        <v>0.28819157773022125</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.8251536072234766</v>
+        <v>3.643851517380554</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.015649769691272852</v>
+        <v>0.018269637952423815</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03674606571476367</v>
+        <v>0.07903755169797294</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2210647571895537</v>
+        <v>0.1677306701883447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7860351974364276</v>
+        <v>0.7379895457310949</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7940715342585447</v>
+        <v>0.7854894792557559</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8545986293578471</v>
+        <v>0.903803664700361</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.2999407789230987</v>
+        <v>0.28919924098886435</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.8560552150935146</v>
+        <v>3.6617760123396312</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.01543182996864916</v>
+        <v>0.01818796706499759</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03629526732479841</v>
+        <v>0.07773559610859566</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.22203556350383333</v>
+        <v>0.1845815156791148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7880075129901307</v>
+        <v>0.7237020700004735</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7950728988949545</v>
+        <v>0.7754808104194744</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9032014761264039</v>
+        <v>0.8704200281102079</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3012305204058589</v>
+        <v>0.2773384243044587</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.87978405300039</v>
+        <v>3.4539622731951054</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.01568920139149695</v>
+        <v>0.018972812791664892</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.052075178945065956</v>
+        <v>0.07101443070155283</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.21866787640971241</v>
+        <v>0.1845815156791148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7841639279189557</v>
+        <v>0.7268730134748478</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7917578122658431</v>
+        <v>0.7791916917745824</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9003890016050432</v>
+        <v>0.8723600165054461</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.29699038770020075</v>
+        <v>0.28165593236219366</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.8021009137524278</v>
+        <v>3.528815097750424</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.01595890747682447</v>
+        <v>0.018756939013458932</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05159761553162368</v>
+        <v>0.06970427770897654</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20694085708956922</v>
+        <v>0.1906817699951748</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6872188254748999</v>
+        <v>0.598311596419873</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7092452787603711</v>
+        <v>0.6433038581710108</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6997816735894915</v>
+        <v>0.6656882448178009</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5932330956613756</v>
+        <v>0.5639546309520322</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.2577777777777777</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1483480706060067</v>
+        <v>0.3354498506873373</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6329184325596195</v>
+        <v>0.6269374940521244</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6499160191877049</v>
+        <v>0.6610278980400401</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6283243683416384</v>
+        <v>0.6862462954741854</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.5138045644334311</v>
+        <v>0.48296879297920053</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.7644444444444445</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2794687712290436</v>
+        <v>1.2943082526997507</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6643377232847547</v>
+        <v>0.6188107590193014</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6928395476936594</v>
+        <v>0.6545700723884309</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6690784731407877</v>
+        <v>0.6799976303603167</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5747580841303049</v>
+        <v>0.4645299699792244</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.3666666666666667</v>
+        <v>0.49777777777777776</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.0536816354402987</v>
+        <v>1.3567432657055523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6215955399566839</v>
+        <v>0.41654502385105824</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6406211721990478</v>
+        <v>0.5215636149376953</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6011046884738168</v>
+        <v>0.46622038148120376</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5064307999218068</v>
+        <v>0.38819793834532</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.7444444444444445</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2212038230902793</v>
+        <v>0.220469454800152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5994045446386859</v>
+        <v>0.6229284301109035</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.5936439125309556</v>
+        <v>0.6641228531694587</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5718657251011247</v>
+        <v>0.6366872940658377</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4702231280755743</v>
+        <v>0.4969097574386773</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>1.9644444444444444</v>
+        <v>3.2577777777777777</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3073640246304001</v>
+        <v>1.1483480706060067</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5801072080480852</v>
+        <v>0.5592601270584331</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.578443071961083</v>
+        <v>0.5985592341150074</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5551875700563963</v>
+        <v>0.5673713025880146</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4586855453710242</v>
+        <v>0.40230635820226684</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.751111111111111</v>
+        <v>3.7644444444444445</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.2069993019969127</v>
+        <v>1.2794687712290436</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.5519003891548296</v>
+        <v>0.5817471484811406</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5370793639258984</v>
+        <v>0.5144751187361282</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.5540063192773632</v>
+        <v>0.40352661624195924</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.41529600286608015</v>
+        <v>0.4055951614801788</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.47333333333333333</v>
+        <v>1.271111111111111</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.2943082526997507</v>
+        <v>1.4491564587613752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5420232484740082</v>
+        <v>0.5709220158452549</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5269463126718221</v>
+        <v>0.5083276902512213</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.5432216769800016</v>
+        <v>0.4045289966773922</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.39614356597565187</v>
+        <v>0.40098166172601846</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.49777777777777776</v>
+        <v>2.2288888888888887</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.3567432657055523</v>
+        <v>1.3883258447943443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5460087431723729</v>
+        <v>0.6296707981354459</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5191983124290851</v>
+        <v>0.5806867067327393</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4101398691125692</v>
+        <v>0.5568951664735147</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.38953137052651776</v>
+        <v>0.48466115914638913</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.271111111111111</v>
+        <v>1.9644444444444444</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.4491564587613752</v>
+        <v>1.3073640246304001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>450.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5599766234386184</v>
+        <v>0.604007192467775</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5446705095102927</v>
+        <v>0.5543469828316456</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.44473445221616814</v>
+        <v>0.5282846760766898</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4135733277281075</v>
+        <v>0.4662827714953477</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.2288888888888887</v>
+        <v>1.751111111111111</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3883258447943443</v>
+        <v>1.2069993019969127</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.051111111111111114</v>
+        <v>0.8711111111111111</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.06</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.008888888888888889</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.4066666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4066666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.06666666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.051111111111111114</v>
+        <v>0.8711111111111111</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0044444444444444444</v>
+        <v>0.011111111111111112</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.044444444444444446</v>
+        <v>0.0022222222222222222</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2911111111111111</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.24666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.3622222222222222</v>
+        <v>0.028888888888888888</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.02</v>
+        <v>0.8711111111111111</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.07333333333333333</v>
+        <v>0.0044444444444444444</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.015555555555555555</v>
+        <v>0.0044444444444444444</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3844444444444444</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.42444444444444446</v>
+        <v>0.013333333333333334</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08222222222222222</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.02</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.024444444444444446</v>
+        <v>0.9488888888888889</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.057777777777777775</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3844444444444444</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.11555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.3977777777777778</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.2222222222222222</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.07777777777777778</v>
+        <v>0.06</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.34</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.23333333333333334</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.12666666666666668</v>
+        <v>0.4066666666666667</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.24888888888888888</v>
+        <v>0.051111111111111114</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.06888888888888889</v>
+        <v>0.0044444444444444444</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.4311111111111111</v>
+        <v>0.044444444444444446</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.18444444444444444</v>
+        <v>0.2911111111111111</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.06666666666666667</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.3622222222222222</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8711111111111111</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.011111111111111112</v>
+        <v>0.14</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.0022222222222222222</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.03333333333333333</v>
+        <v>0.24666666666666667</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.05333333333333334</v>
+        <v>0.07111111111111111</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.028888888888888888</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8711111111111111</v>
+        <v>0.19777777777777777</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.0044444444444444444</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.0044444444444444444</v>
+        <v>0.057777777777777775</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.051111111111111114</v>
+        <v>0.46444444444444444</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.013333333333333334</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.05555555555555555</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4888888888888889</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.14</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05333333333333334</v>
+        <v>0.34</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.24666666666666667</v>
+        <v>0.23333333333333334</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.07111111111111111</v>
+        <v>0.12666666666666668</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.19777777777777777</v>
+        <v>0.24888888888888888</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.13333333333333333</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.057777777777777775</v>
+        <v>0.4311111111111111</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.46444444444444444</v>
+        <v>0.18444444444444444</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.14666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
